--- a/Individual Codes/UB1000/Calibration/Calibración Final - Current.xlsx
+++ b/Individual Codes/UB1000/Calibration/Calibración Final - Current.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Q\Documents\TEC\2025 - II Semestre\eWave\eWave\Individual Codes\UB1000\Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eWave\eWave\Individual Codes\UB1000\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE9F7D-5777-4719-904E-62B023396964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78457E46-B688-4F1E-838A-984D1490868F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD6E8BBC-5264-4291-AA6B-4364FD396A03}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{DD6E8BBC-5264-4291-AA6B-4364FD396A03}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration_NoBond" sheetId="8" r:id="rId1"/>
     <sheet name="Calibration_Bond" sheetId="5" r:id="rId2"/>
+    <sheet name="Calibration_NoBond 10-10-2025" sheetId="9" r:id="rId3"/>
+    <sheet name="Calibration_Bond 10-10-2025 " sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>Intercepto</t>
   </si>
@@ -107,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -131,6 +133,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,7 +156,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -730,10 +735,615 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Prueba pre-calibración</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33383842767685534"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calibration_Bond 10-10-2025 '!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medida Sensor (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7366648066629466E-2"/>
+                  <c:y val="0.13847222222222222"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration_Bond 10-10-2025 '!$C$3:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration_Bond 10-10-2025 '!$B$3:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8F4C-4AA3-831F-70CA3D54CB53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1247600800"/>
+        <c:axId val="1247596480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1247600800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="597"/>
+          <c:min val="277"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medida del sensor (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247596480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1247596480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="605"/>
+          <c:min val="274"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medida del</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CR" baseline="0"/>
+                  <a:t> real</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247600800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1329,7 +1939,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1911,7 +2521,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2221,6 +2831,2999 @@
           <c:orientation val="minMax"/>
           <c:max val="756"/>
           <c:min val="416"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Reales (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247596480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1247596480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Calibrado (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247600800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Prueba pre-calibración</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33383842767685534"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calibration_NoBond 10-10-2025'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medida Sensor (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7366648066629466E-2"/>
+                  <c:y val="0.13847222222222222"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration_NoBond 10-10-2025'!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration_NoBond 10-10-2025'!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58BC-429E-909E-6FE6824638A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1247600800"/>
+        <c:axId val="1247596480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1247600800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="415"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medida real (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247596480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1247596480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medida del sensor (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247600800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prueba post-calibración</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32754624106330149"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calibration_NoBond 10-10-2025'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calibración (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.38191671748102196"/>
+                  <c:y val="3.1990740740740743E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration_NoBond 10-10-2025'!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration_NoBond 10-10-2025'!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>275.92092020129405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>296.45291157440693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316.00718907260966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>335.5614665708124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>356.09345794392522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>375.64773544212795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>396.17972681524083</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>415.73400431344356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>436.26599568655644</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>455.82027318475917</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>476.35226455787205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>495.90654205607478</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>516.4385334291876</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>535.99281092739034</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>555.54708842559307</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>576.07907979870595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0A3D-4888-949F-7CCBCAF8BA69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1247600800"/>
+        <c:axId val="1247596480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1247600800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="755"/>
+          <c:min val="415"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Reales (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247596480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1247596480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Calibrado (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247600800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Prueba pre-calibración</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33383842767685534"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calibration_NoBond 10-10-2025'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medida Sensor (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7366648066629466E-2"/>
+                  <c:y val="0.13847222222222222"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration_NoBond 10-10-2025'!$C$3:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration_NoBond 10-10-2025'!$B$3:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB78-4781-9B98-1BE31CD6A3A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1247600800"/>
+        <c:axId val="1247596480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1247600800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="597"/>
+          <c:min val="277"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medida del sensor (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247596480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1247596480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="605"/>
+          <c:min val="274"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medida del</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CR" baseline="0"/>
+                  <a:t> real</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247600800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Prueba pre-calibración</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33383842767685534"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calibration_Bond 10-10-2025 '!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medida Sensor (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7366648066629466E-2"/>
+                  <c:y val="0.13847222222222222"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration_Bond 10-10-2025 '!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration_Bond 10-10-2025 '!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BEE0-4A7C-8B1B-17425DDFCD51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1247600800"/>
+        <c:axId val="1247596480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1247600800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="415"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medida real (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247596480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1247596480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Medida del sensor (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247600800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prueba post-calibración</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32754624106330149"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calibration_Bond 10-10-2025 '!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calibración (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.38191671748102196"/>
+                  <c:y val="3.1990740740740743E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration_Bond 10-10-2025 '!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration_Bond 10-10-2025 '!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>330.10687566797293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349.48699679372999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>369.83612397577485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>390.18525115781978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410.53437833986465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>429.9144994656217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>450.26362664766657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>469.64374777342363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>489.99287495546849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>510.34200213751336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>529.72212326327042</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550.07125044531529</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>569.45137157107229</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>590.76950480940513</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>610.14962593516213</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>629.52974706091914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3448-4915-AA73-AEEC1D707BC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1247600800"/>
+        <c:axId val="1247596480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1247600800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="755"/>
+          <c:min val="415"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2544,6 +6147,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2664,6 +6307,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3180,7 +7023,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3696,7 +7539,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4212,7 +8055,3103 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4890,6 +11829,244 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E29714-9506-4086-8D3A-FB27FF257E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C6EC09-30F2-42AB-A064-6DB25BA9156E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFAF448-4B6E-4646-A739-135B9B42BE0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7365A388-563F-466B-B70E-0519ED7D92F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B13EC1B-0A62-48FE-9337-19F5487999A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F06F95-2D4F-42E9-920F-5932F34513A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -5209,9 +12386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759A7D7B-E854-4DCE-A9EA-2115A357C041}">
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -5733,7 +12910,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -6247,4 +13424,1066 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E35D5CA-70C0-45D7-9B3B-9B253BD4C14D}">
+  <dimension ref="A2:K76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <f>INTERCEPT($C$3:$C$18,$B$3:$B$18)</f>
+        <v>-2.2102941176470381</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>276</v>
+      </c>
+      <c r="C3" s="4">
+        <v>280</v>
+      </c>
+      <c r="D3" s="4">
+        <f>(C3-$G$2)/$G$3</f>
+        <v>275.92092020129405</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <f>SLOPE($C$3:$C$18,$B$3:$B$18)</f>
+        <v>1.0227941176470587</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>296</v>
+      </c>
+      <c r="C4" s="4">
+        <v>301</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D19" si="0">(C4-$G$2)/$G$3</f>
+        <v>296.45291157440693</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>316</v>
+      </c>
+      <c r="C5" s="4">
+        <v>321</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>316.00718907260966</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>336</v>
+      </c>
+      <c r="C6" s="4">
+        <v>341</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>335.5614665708124</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>356</v>
+      </c>
+      <c r="C7" s="4">
+        <v>362</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>356.09345794392522</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>376</v>
+      </c>
+      <c r="C8" s="4">
+        <v>382</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>375.64773544212795</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>396</v>
+      </c>
+      <c r="C9" s="4">
+        <v>403</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>396.17972681524083</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>416</v>
+      </c>
+      <c r="C10" s="4">
+        <v>423</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>415.73400431344356</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>436</v>
+      </c>
+      <c r="C11" s="4">
+        <v>444</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>436.26599568655644</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>456</v>
+      </c>
+      <c r="C12" s="4">
+        <v>464</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>455.82027318475917</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>476</v>
+      </c>
+      <c r="C13" s="4">
+        <v>485</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>476.35226455787205</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>496</v>
+      </c>
+      <c r="C14" s="4">
+        <v>505</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>495.90654205607478</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1">
+        <v>516</v>
+      </c>
+      <c r="C15" s="4">
+        <v>526</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>516.4385334291876</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1">
+        <v>536</v>
+      </c>
+      <c r="C16" s="4">
+        <v>546</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>535.99281092739034</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1">
+        <v>556</v>
+      </c>
+      <c r="C17" s="4">
+        <v>566</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>555.54708842559307</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1">
+        <v>576</v>
+      </c>
+      <c r="C18" s="9">
+        <v>587</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>576.07907979870595</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2">
+        <v>596</v>
+      </c>
+      <c r="C19" s="5">
+        <v>607</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>595.63335729690868</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F76" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CD74BE-FDE5-4B8A-9A98-F5DCA253AEA6}">
+  <dimension ref="A2:K76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <f>INTERCEPT($C$3:$C$18,$B$3:$B$18)</f>
+        <v>-1.6654411764706083</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>330</v>
+      </c>
+      <c r="C3" s="4">
+        <v>339</v>
+      </c>
+      <c r="D3" s="4">
+        <f>(C3-$G$2)/$G$3</f>
+        <v>330.10687566797293</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <f>SLOPE($C$3:$C$18,$B$3:$B$18)</f>
+        <v>1.0319852941176471</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>350</v>
+      </c>
+      <c r="C4" s="4">
+        <v>359</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D19" si="0">(C4-$G$2)/$G$3</f>
+        <v>349.48699679372999</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>370</v>
+      </c>
+      <c r="C5" s="4">
+        <v>380</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>369.83612397577485</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>390</v>
+      </c>
+      <c r="C6" s="4">
+        <v>401</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>390.18525115781978</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>410</v>
+      </c>
+      <c r="C7" s="4">
+        <v>422</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>410.53437833986465</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>430</v>
+      </c>
+      <c r="C8" s="4">
+        <v>442</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>429.9144994656217</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>450</v>
+      </c>
+      <c r="C9" s="4">
+        <v>463</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>450.26362664766657</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>470</v>
+      </c>
+      <c r="C10" s="4">
+        <v>483</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>469.64374777342363</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>490</v>
+      </c>
+      <c r="C11" s="4">
+        <v>504</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>489.99287495546849</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>510</v>
+      </c>
+      <c r="C12" s="4">
+        <v>525</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>510.34200213751336</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>530</v>
+      </c>
+      <c r="C13" s="4">
+        <v>545</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>529.72212326327042</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>550</v>
+      </c>
+      <c r="C14" s="4">
+        <v>566</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>550.07125044531529</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1">
+        <v>570</v>
+      </c>
+      <c r="C15" s="4">
+        <v>586</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>569.45137157107229</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1">
+        <v>590</v>
+      </c>
+      <c r="C16" s="4">
+        <v>608</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>590.76950480940513</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1">
+        <v>610</v>
+      </c>
+      <c r="C17" s="4">
+        <v>628</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>610.14962593516213</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1">
+        <v>630</v>
+      </c>
+      <c r="C18" s="9">
+        <v>648</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>629.52974706091914</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2">
+        <v>650</v>
+      </c>
+      <c r="C19" s="5">
+        <v>669</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>649.878874242964</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F76" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Individual Codes/UB1000/Calibration/Calibración Final - Current.xlsx
+++ b/Individual Codes/UB1000/Calibration/Calibración Final - Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eWave\eWave\Individual Codes\UB1000\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78457E46-B688-4F1E-838A-984D1490868F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8148B4EF-8F32-470D-9DBE-B48DBA7DB395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{DD6E8BBC-5264-4291-AA6B-4364FD396A03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{DD6E8BBC-5264-4291-AA6B-4364FD396A03}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration_NoBond" sheetId="8" r:id="rId1"/>
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -133,9 +133,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13430,8 +13427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E35D5CA-70C0-45D7-9B3B-9B253BD4C14D}">
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13698,10 +13695,10 @@
       <c r="B18" s="1">
         <v>576</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="4">
         <v>587</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>576.07907979870595</v>
       </c>
@@ -13961,7 +13958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CD74BE-FDE5-4B8A-9A98-F5DCA253AEA6}">
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -14229,10 +14226,10 @@
       <c r="B18" s="1">
         <v>630</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="4">
         <v>648</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>629.52974706091914</v>
       </c>
